--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Igf1r.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H2">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I2">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J2">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.541773</v>
+        <v>17.002896</v>
       </c>
       <c r="N2">
-        <v>23.083546</v>
+        <v>34.005792</v>
       </c>
       <c r="O2">
-        <v>0.2250656192673999</v>
+        <v>0.2016481661015148</v>
       </c>
       <c r="P2">
-        <v>0.1829004464319742</v>
+        <v>0.1508855102621455</v>
       </c>
       <c r="Q2">
-        <v>2251.56028777986</v>
+        <v>3085.93053530412</v>
       </c>
       <c r="R2">
-        <v>9006.24115111944</v>
+        <v>12343.72214121648</v>
       </c>
       <c r="S2">
-        <v>0.05943095172725091</v>
+        <v>0.04515883393237755</v>
       </c>
       <c r="T2">
-        <v>0.03625647005321762</v>
+        <v>0.02496173059128582</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H3">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I3">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J3">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>26.479315</v>
       </c>
       <c r="O3">
-        <v>0.1721163472386074</v>
+        <v>0.1046783502719053</v>
       </c>
       <c r="P3">
-        <v>0.20980652343071</v>
+        <v>0.1174901309508416</v>
       </c>
       <c r="Q3">
-        <v>1721.854868733876</v>
+        <v>1601.949195643621</v>
       </c>
       <c r="R3">
-        <v>10331.12921240325</v>
+        <v>9611.695173861726</v>
       </c>
       <c r="S3">
-        <v>0.04544913771150155</v>
+        <v>0.02344257489485152</v>
       </c>
       <c r="T3">
-        <v>0.04159007854890302</v>
+        <v>0.01943696906902781</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H4">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I4">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J4">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.407739666666667</v>
+        <v>3.388572</v>
       </c>
       <c r="N4">
-        <v>10.223219</v>
+        <v>10.165716</v>
       </c>
       <c r="O4">
-        <v>0.06645123226565072</v>
+        <v>0.04018723219285363</v>
       </c>
       <c r="P4">
-        <v>0.0810027765695895</v>
+        <v>0.04510582332092299</v>
       </c>
       <c r="Q4">
-        <v>664.779259179577</v>
+        <v>615.0068674110901</v>
       </c>
       <c r="R4">
-        <v>3988.675555077462</v>
+        <v>3690.04120446654</v>
       </c>
       <c r="S4">
-        <v>0.01754714909301238</v>
+        <v>0.008999876269072308</v>
       </c>
       <c r="T4">
-        <v>0.0160572311342887</v>
+        <v>0.007462077756034139</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H5">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I5">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J5">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.095412</v>
+        <v>10.581151</v>
       </c>
       <c r="N5">
-        <v>32.19082400000001</v>
+        <v>21.162302</v>
       </c>
       <c r="O5">
-        <v>0.3138619923597475</v>
+        <v>0.1254886046702403</v>
       </c>
       <c r="P5">
-        <v>0.2550611626399649</v>
+        <v>0.09389826108421828</v>
       </c>
       <c r="Q5">
-        <v>3139.880716303762</v>
+        <v>1920.419731413033</v>
       </c>
       <c r="R5">
-        <v>12559.52286521505</v>
+        <v>7681.678925652132</v>
       </c>
       <c r="S5">
-        <v>0.08287857104815831</v>
+        <v>0.02810300320736013</v>
       </c>
       <c r="T5">
-        <v>0.05056093402393198</v>
+        <v>0.0155340502351902</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H6">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I6">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J6">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.935845</v>
+        <v>41.965716</v>
       </c>
       <c r="N6">
-        <v>26.807535</v>
+        <v>125.897148</v>
       </c>
       <c r="O6">
-        <v>0.174249787151636</v>
+        <v>0.4976981374547604</v>
       </c>
       <c r="P6">
-        <v>0.2124071457323227</v>
+        <v>0.5586123509938791</v>
       </c>
       <c r="Q6">
-        <v>1743.197837954032</v>
+        <v>7616.542760733271</v>
       </c>
       <c r="R6">
-        <v>10459.18702772419</v>
+        <v>45699.25656439963</v>
       </c>
       <c r="S6">
-        <v>0.04601249503323245</v>
+        <v>0.1114588244083431</v>
       </c>
       <c r="T6">
-        <v>0.04210560153661327</v>
+        <v>0.09241398319989835</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H7">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I7">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J7">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.474605</v>
+        <v>2.554843</v>
       </c>
       <c r="N7">
-        <v>7.423815</v>
+        <v>7.664529</v>
       </c>
       <c r="O7">
-        <v>0.0482550217169584</v>
+        <v>0.03029950930872554</v>
       </c>
       <c r="P7">
-        <v>0.05882194519543864</v>
+        <v>0.03400792338799259</v>
       </c>
       <c r="Q7">
-        <v>482.7440589882924</v>
+        <v>463.6897165405226</v>
       </c>
       <c r="R7">
-        <v>2896.464353929755</v>
+        <v>2782.138299243135</v>
       </c>
       <c r="S7">
-        <v>0.01274224768577702</v>
+        <v>0.006785534109030442</v>
       </c>
       <c r="T7">
-        <v>0.01166031103835294</v>
+        <v>0.005626097695566016</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>187.223767</v>
       </c>
       <c r="I8">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J8">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.541773</v>
+        <v>17.002896</v>
       </c>
       <c r="N8">
-        <v>23.083546</v>
+        <v>34.005792</v>
       </c>
       <c r="O8">
-        <v>0.2250656192673999</v>
+        <v>0.2016481661015148</v>
       </c>
       <c r="P8">
-        <v>0.1829004464319742</v>
+        <v>0.1508855102621455</v>
       </c>
       <c r="Q8">
-        <v>720.2980729729637</v>
+        <v>1061.115413009744</v>
       </c>
       <c r="R8">
-        <v>4321.788437837782</v>
+        <v>6366.692478058464</v>
       </c>
       <c r="S8">
-        <v>0.01901259328316661</v>
+        <v>0.01552813135972642</v>
       </c>
       <c r="T8">
-        <v>0.01739824533271923</v>
+        <v>0.01287485740336012</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>187.223767</v>
       </c>
       <c r="I9">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J9">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>26.479315</v>
       </c>
       <c r="O9">
-        <v>0.1721163472386074</v>
+        <v>0.1046783502719053</v>
       </c>
       <c r="P9">
-        <v>0.20980652343071</v>
+        <v>0.1174901309508416</v>
       </c>
       <c r="Q9">
         <v>550.8396779866229</v>
@@ -1013,10 +1013,10 @@
         <v>4957.557101879605</v>
       </c>
       <c r="S9">
-        <v>0.01453966233529438</v>
+        <v>0.008060867623875648</v>
       </c>
       <c r="T9">
-        <v>0.01995766242380405</v>
+        <v>0.01002527465802457</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>187.223767</v>
       </c>
       <c r="I10">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J10">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.407739666666667</v>
+        <v>3.388572</v>
       </c>
       <c r="N10">
-        <v>10.223219</v>
+        <v>10.165716</v>
       </c>
       <c r="O10">
-        <v>0.06645123226565072</v>
+        <v>0.04018723219285363</v>
       </c>
       <c r="P10">
-        <v>0.0810027765695895</v>
+        <v>0.04510582332092299</v>
       </c>
       <c r="Q10">
-        <v>212.6699524495526</v>
+        <v>211.473738196908</v>
       </c>
       <c r="R10">
-        <v>1914.029572045973</v>
+        <v>1903.263643772172</v>
       </c>
       <c r="S10">
-        <v>0.005613519543076016</v>
+        <v>0.003094660529470443</v>
       </c>
       <c r="T10">
-        <v>0.007705318422573229</v>
+        <v>0.003848819163013655</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>187.223767</v>
       </c>
       <c r="I11">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J11">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.095412</v>
+        <v>10.581151</v>
       </c>
       <c r="N11">
-        <v>32.19082400000001</v>
+        <v>21.162302</v>
       </c>
       <c r="O11">
-        <v>0.3138619923597475</v>
+        <v>0.1254886046702403</v>
       </c>
       <c r="P11">
-        <v>0.2550611626399649</v>
+        <v>0.09389826108421828</v>
       </c>
       <c r="Q11">
-        <v>1004.481222019002</v>
+        <v>660.3476498052725</v>
       </c>
       <c r="R11">
-        <v>6026.887332114009</v>
+        <v>3962.085898831634</v>
       </c>
       <c r="S11">
-        <v>0.02651373598155148</v>
+        <v>0.009663383382754362</v>
       </c>
       <c r="T11">
-        <v>0.02426247048067859</v>
+        <v>0.008012212171880681</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>187.223767</v>
       </c>
       <c r="I12">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J12">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.935845</v>
+        <v>41.965716</v>
       </c>
       <c r="N12">
-        <v>26.807535</v>
+        <v>125.897148</v>
       </c>
       <c r="O12">
-        <v>0.174249787151636</v>
+        <v>0.4976981374547604</v>
       </c>
       <c r="P12">
-        <v>0.2124071457323227</v>
+        <v>0.5586123509938791</v>
       </c>
       <c r="Q12">
-        <v>557.6675207427051</v>
+        <v>2618.993144790724</v>
       </c>
       <c r="R12">
-        <v>5019.007686684346</v>
+        <v>23570.93830311652</v>
       </c>
       <c r="S12">
-        <v>0.0147198863317116</v>
+        <v>0.03832577407125073</v>
       </c>
       <c r="T12">
-        <v>0.02020504435044154</v>
+        <v>0.04766563966484665</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>187.223767</v>
       </c>
       <c r="I13">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J13">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.474605</v>
+        <v>2.554843</v>
       </c>
       <c r="N13">
-        <v>7.423815</v>
+        <v>7.664529</v>
       </c>
       <c r="O13">
-        <v>0.0482550217169584</v>
+        <v>0.03029950930872554</v>
       </c>
       <c r="P13">
-        <v>0.05882194519543864</v>
+        <v>0.03400792338799259</v>
       </c>
       <c r="Q13">
-        <v>154.4349566456783</v>
+        <v>159.4424435178603</v>
       </c>
       <c r="R13">
-        <v>1389.914609811105</v>
+        <v>1434.981991660743</v>
       </c>
       <c r="S13">
-        <v>0.004076380500767995</v>
+        <v>0.002333245919252669</v>
       </c>
       <c r="T13">
-        <v>0.005595386197368507</v>
+        <v>0.002901850306527733</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H14">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I14">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J14">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.541773</v>
+        <v>17.002896</v>
       </c>
       <c r="N14">
-        <v>23.083546</v>
+        <v>34.005792</v>
       </c>
       <c r="O14">
-        <v>0.2250656192673999</v>
+        <v>0.2016481661015148</v>
       </c>
       <c r="P14">
-        <v>0.1829004464319742</v>
+        <v>0.1508855102621455</v>
       </c>
       <c r="Q14">
-        <v>1648.88205931006</v>
+        <v>2924.46464463304</v>
       </c>
       <c r="R14">
-        <v>9893.292355860363</v>
+        <v>17546.78786779824</v>
       </c>
       <c r="S14">
-        <v>0.04352298741572379</v>
+        <v>0.0427959773291131</v>
       </c>
       <c r="T14">
-        <v>0.03982747652536413</v>
+        <v>0.03548347787543905</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H15">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I15">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J15">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>26.479315</v>
       </c>
       <c r="O15">
-        <v>0.1721163472386074</v>
+        <v>0.1046783502719053</v>
       </c>
       <c r="P15">
-        <v>0.20980652343071</v>
+        <v>0.1174901309508416</v>
       </c>
       <c r="Q15">
-        <v>1260.963615853468</v>
+        <v>1518.130019960547</v>
       </c>
       <c r="R15">
-        <v>11348.67254268121</v>
+        <v>13663.17017964493</v>
       </c>
       <c r="S15">
-        <v>0.03328370472260447</v>
+        <v>0.02221598337190019</v>
       </c>
       <c r="T15">
-        <v>0.04568640782357366</v>
+        <v>0.02762994574451556</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H16">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I16">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J16">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.407739666666667</v>
+        <v>3.388572</v>
       </c>
       <c r="N16">
-        <v>10.223219</v>
+        <v>10.165716</v>
       </c>
       <c r="O16">
-        <v>0.06645123226565072</v>
+        <v>0.04018723219285363</v>
       </c>
       <c r="P16">
-        <v>0.0810027765695895</v>
+        <v>0.04510582332092299</v>
       </c>
       <c r="Q16">
-        <v>486.8368836543495</v>
+        <v>582.8277141607799</v>
       </c>
       <c r="R16">
-        <v>4381.531952889146</v>
+        <v>5245.44942744702</v>
       </c>
       <c r="S16">
-        <v>0.01285027964320526</v>
+        <v>0.008528973563683942</v>
       </c>
       <c r="T16">
-        <v>0.01763875510011142</v>
+        <v>0.01060745648194275</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H17">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I17">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J17">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.095412</v>
+        <v>10.581151</v>
       </c>
       <c r="N17">
-        <v>32.19082400000001</v>
+        <v>21.162302</v>
       </c>
       <c r="O17">
-        <v>0.3138619923597475</v>
+        <v>0.1254886046702403</v>
       </c>
       <c r="P17">
-        <v>0.2550611626399649</v>
+        <v>0.09389826108421828</v>
       </c>
       <c r="Q17">
-        <v>2299.42454109987</v>
+        <v>1819.937144767782</v>
       </c>
       <c r="R17">
-        <v>13796.54724659922</v>
+        <v>10919.62286860669</v>
       </c>
       <c r="S17">
-        <v>0.06069435033308052</v>
+        <v>0.02663256296526912</v>
       </c>
       <c r="T17">
-        <v>0.05554082926393236</v>
+        <v>0.02208188754463826</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H18">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I18">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J18">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.935845</v>
+        <v>41.965716</v>
       </c>
       <c r="N18">
-        <v>26.807535</v>
+        <v>125.897148</v>
       </c>
       <c r="O18">
-        <v>0.174249787151636</v>
+        <v>0.4976981374547604</v>
       </c>
       <c r="P18">
-        <v>0.2124071457323227</v>
+        <v>0.5586123509938791</v>
       </c>
       <c r="Q18">
-        <v>1276.59368324741</v>
+        <v>7218.020549482339</v>
       </c>
       <c r="R18">
-        <v>11489.34314922669</v>
+        <v>64962.18494534106</v>
       </c>
       <c r="S18">
-        <v>0.03369626741782726</v>
+        <v>0.1056269373485551</v>
       </c>
       <c r="T18">
-        <v>0.04625270618800844</v>
+        <v>0.1313678759676844</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H19">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I19">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J19">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.474605</v>
+        <v>2.554843</v>
       </c>
       <c r="N19">
-        <v>7.423815</v>
+        <v>7.664529</v>
       </c>
       <c r="O19">
-        <v>0.0482550217169584</v>
+        <v>0.03029950930872554</v>
       </c>
       <c r="P19">
-        <v>0.05882194519543864</v>
+        <v>0.03400792338799259</v>
       </c>
       <c r="Q19">
-        <v>353.5272950160233</v>
+        <v>439.4279672173616</v>
       </c>
       <c r="R19">
-        <v>3181.74565514421</v>
+        <v>3954.851704956255</v>
       </c>
       <c r="S19">
-        <v>0.009331512781778602</v>
+        <v>0.00643049296469515</v>
       </c>
       <c r="T19">
-        <v>0.01280876939969042</v>
+        <v>0.007997583035182975</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H20">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I20">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J20">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.541773</v>
+        <v>17.002896</v>
       </c>
       <c r="N20">
-        <v>23.083546</v>
+        <v>34.005792</v>
       </c>
       <c r="O20">
-        <v>0.2250656192673999</v>
+        <v>0.2016481661015148</v>
       </c>
       <c r="P20">
-        <v>0.1829004464319742</v>
+        <v>0.1508855102621455</v>
       </c>
       <c r="Q20">
-        <v>611.9115006740085</v>
+        <v>946.088665035768</v>
       </c>
       <c r="R20">
-        <v>2447.646002696034</v>
+        <v>3784.354660143072</v>
       </c>
       <c r="S20">
-        <v>0.01615168070572325</v>
+        <v>0.01384485503509382</v>
       </c>
       <c r="T20">
-        <v>0.009853500756705382</v>
+        <v>0.007652800379631591</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H21">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I21">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J21">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>26.479315</v>
       </c>
       <c r="O21">
-        <v>0.1721163472386074</v>
+        <v>0.1046783502719053</v>
       </c>
       <c r="P21">
-        <v>0.20980652343071</v>
+        <v>0.1174901309508416</v>
       </c>
       <c r="Q21">
-        <v>467.9522917455226</v>
+        <v>491.1277031750276</v>
       </c>
       <c r="R21">
-        <v>2807.713750473135</v>
+        <v>2946.766219050165</v>
       </c>
       <c r="S21">
-        <v>0.01235181230204026</v>
+        <v>0.007187055616948733</v>
       </c>
       <c r="T21">
-        <v>0.01130302729006801</v>
+        <v>0.005959011684961916</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H22">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I22">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J22">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.407739666666667</v>
+        <v>3.388572</v>
       </c>
       <c r="N22">
-        <v>10.223219</v>
+        <v>10.165716</v>
       </c>
       <c r="O22">
-        <v>0.06645123226565072</v>
+        <v>0.04018723219285363</v>
       </c>
       <c r="P22">
-        <v>0.0810027765695895</v>
+        <v>0.04510582332092299</v>
       </c>
       <c r="Q22">
-        <v>180.6685240938585</v>
+        <v>188.549618833026</v>
       </c>
       <c r="R22">
-        <v>1084.011144563151</v>
+        <v>1131.297712998156</v>
       </c>
       <c r="S22">
-        <v>0.004768827373768986</v>
+        <v>0.002759193970014164</v>
       </c>
       <c r="T22">
-        <v>0.004363909087124866</v>
+        <v>0.002287733667959474</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H23">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I23">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J23">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.095412</v>
+        <v>10.581151</v>
       </c>
       <c r="N23">
-        <v>32.19082400000001</v>
+        <v>21.162302</v>
       </c>
       <c r="O23">
-        <v>0.3138619923597475</v>
+        <v>0.1254886046702403</v>
       </c>
       <c r="P23">
-        <v>0.2550611626399649</v>
+        <v>0.09389826108421828</v>
       </c>
       <c r="Q23">
-        <v>853.3323009286743</v>
+        <v>588.7648212476206</v>
       </c>
       <c r="R23">
-        <v>3413.329203714697</v>
+        <v>2355.059284990482</v>
       </c>
       <c r="S23">
-        <v>0.02252409187488496</v>
+        <v>0.008615855892986586</v>
       </c>
       <c r="T23">
-        <v>0.01374105644960137</v>
+        <v>0.004762449666794362</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H24">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I24">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J24">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.935845</v>
+        <v>41.965716</v>
       </c>
       <c r="N24">
-        <v>26.807535</v>
+        <v>125.897148</v>
       </c>
       <c r="O24">
-        <v>0.174249787151636</v>
+        <v>0.4976981374547604</v>
       </c>
       <c r="P24">
-        <v>0.2124071457323227</v>
+        <v>0.5586123509938791</v>
       </c>
       <c r="Q24">
-        <v>473.7527175192526</v>
+        <v>2335.089753399078</v>
       </c>
       <c r="R24">
-        <v>2842.516305115515</v>
+        <v>14010.53852039447</v>
       </c>
       <c r="S24">
-        <v>0.01250491716271266</v>
+        <v>0.03417119380509752</v>
       </c>
       <c r="T24">
-        <v>0.0114431321083817</v>
+        <v>0.02833240119827042</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H25">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I25">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J25">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.474605</v>
+        <v>2.554843</v>
       </c>
       <c r="N25">
-        <v>7.423815</v>
+        <v>7.664529</v>
       </c>
       <c r="O25">
-        <v>0.0482550217169584</v>
+        <v>0.03029950930872554</v>
       </c>
       <c r="P25">
-        <v>0.05882194519543864</v>
+        <v>0.03400792338799259</v>
       </c>
       <c r="Q25">
-        <v>131.1964166272725</v>
+        <v>142.1586065836065</v>
       </c>
       <c r="R25">
-        <v>787.1784997636352</v>
+        <v>852.9516395016391</v>
       </c>
       <c r="S25">
-        <v>0.003462988730828989</v>
+        <v>0.002080318021848996</v>
       </c>
       <c r="T25">
-        <v>0.003168948424134696</v>
+        <v>0.001724856472711982</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H26">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I26">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J26">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>11.541773</v>
+        <v>17.002896</v>
       </c>
       <c r="N26">
-        <v>23.083546</v>
+        <v>34.005792</v>
       </c>
       <c r="O26">
-        <v>0.2250656192673999</v>
+        <v>0.2016481661015148</v>
       </c>
       <c r="P26">
-        <v>0.1829004464319742</v>
+        <v>0.1508855102621455</v>
       </c>
       <c r="Q26">
-        <v>1659.520373097682</v>
+        <v>3458.156395774032</v>
       </c>
       <c r="R26">
-        <v>9957.122238586091</v>
+        <v>20748.93837464419</v>
       </c>
       <c r="S26">
-        <v>0.04380379051773394</v>
+        <v>0.05060590593415885</v>
       </c>
       <c r="T26">
-        <v>0.04008443680354391</v>
+        <v>0.04195893295699363</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H27">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I27">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J27">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>26.479315</v>
       </c>
       <c r="O27">
-        <v>0.1721163472386074</v>
+        <v>0.1046783502719053</v>
       </c>
       <c r="P27">
-        <v>0.20980652343071</v>
+        <v>0.1174901309508416</v>
       </c>
       <c r="Q27">
-        <v>1269.099144131237</v>
+        <v>1795.176784844285</v>
       </c>
       <c r="R27">
-        <v>11421.89229718113</v>
+        <v>16156.59106359857</v>
       </c>
       <c r="S27">
-        <v>0.03349844566957175</v>
+        <v>0.02627022526223301</v>
       </c>
       <c r="T27">
-        <v>0.04598116895552495</v>
+        <v>0.03267219310263721</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H28">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I28">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J28">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>3.407739666666667</v>
+        <v>3.388572</v>
       </c>
       <c r="N28">
-        <v>10.223219</v>
+        <v>10.165716</v>
       </c>
       <c r="O28">
-        <v>0.06645123226565072</v>
+        <v>0.04018723219285363</v>
       </c>
       <c r="P28">
-        <v>0.0810027765695895</v>
+        <v>0.04510582332092299</v>
       </c>
       <c r="Q28">
-        <v>489.9778745472153</v>
+        <v>689.189178969324</v>
       </c>
       <c r="R28">
-        <v>4409.800870924938</v>
+        <v>6202.702610723916</v>
       </c>
       <c r="S28">
-        <v>0.01293318751786568</v>
+        <v>0.01008544402571918</v>
       </c>
       <c r="T28">
-        <v>0.01775255742485532</v>
+        <v>0.01254323369689015</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H29">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I29">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J29">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>16.095412</v>
+        <v>10.581151</v>
       </c>
       <c r="N29">
-        <v>32.19082400000001</v>
+        <v>21.162302</v>
       </c>
       <c r="O29">
-        <v>0.3138619923597475</v>
+        <v>0.1254886046702403</v>
       </c>
       <c r="P29">
-        <v>0.2550611626399649</v>
+        <v>0.09389826108421828</v>
       </c>
       <c r="Q29">
-        <v>2314.260047169608</v>
+        <v>2152.061331510867</v>
       </c>
       <c r="R29">
-        <v>13885.56028301765</v>
+        <v>12912.3679890652</v>
       </c>
       <c r="S29">
-        <v>0.06108594022292946</v>
+        <v>0.03149279582614226</v>
       </c>
       <c r="T29">
-        <v>0.0558991694899044</v>
+        <v>0.02611165800324992</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H30">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I30">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J30">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>8.935845</v>
+        <v>41.965716</v>
       </c>
       <c r="N30">
-        <v>26.807535</v>
+        <v>125.897148</v>
       </c>
       <c r="O30">
-        <v>0.174249787151636</v>
+        <v>0.4976981374547604</v>
       </c>
       <c r="P30">
-        <v>0.2124071457323227</v>
+        <v>0.5586123509938791</v>
       </c>
       <c r="Q30">
-        <v>1284.83005412973</v>
+        <v>8535.252417507972</v>
       </c>
       <c r="R30">
-        <v>11563.47048716757</v>
+        <v>76817.27175757175</v>
       </c>
       <c r="S30">
-        <v>0.03391367015093264</v>
+        <v>0.1249030210121632</v>
       </c>
       <c r="T30">
-        <v>0.04655112098315794</v>
+        <v>0.1553414780755203</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H31">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I31">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J31">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.474605</v>
+        <v>2.554843</v>
       </c>
       <c r="N31">
-        <v>7.423815</v>
+        <v>7.664529</v>
       </c>
       <c r="O31">
-        <v>0.0482550217169584</v>
+        <v>0.03029950930872554</v>
       </c>
       <c r="P31">
-        <v>0.05882194519543864</v>
+        <v>0.03400792338799259</v>
       </c>
       <c r="Q31">
-        <v>355.80819453557</v>
+        <v>519.6201082832309</v>
       </c>
       <c r="R31">
-        <v>3202.27375082013</v>
+        <v>4676.580974549079</v>
       </c>
       <c r="S31">
-        <v>0.009391718155792615</v>
+        <v>0.00760400725467851</v>
       </c>
       <c r="T31">
-        <v>0.01289140945713892</v>
+        <v>0.009457078913437255</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H32">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I32">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J32">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>11.541773</v>
+        <v>17.002896</v>
       </c>
       <c r="N32">
-        <v>23.083546</v>
+        <v>34.005792</v>
       </c>
       <c r="O32">
-        <v>0.2250656192673999</v>
+        <v>0.2016481661015148</v>
       </c>
       <c r="P32">
-        <v>0.1829004464319742</v>
+        <v>0.1508855102621455</v>
       </c>
       <c r="Q32">
-        <v>1634.509439493608</v>
+        <v>2303.87900405032</v>
       </c>
       <c r="R32">
-        <v>9807.05663696165</v>
+        <v>13823.27402430192</v>
       </c>
       <c r="S32">
-        <v>0.04314361561780139</v>
+        <v>0.033714462511045</v>
       </c>
       <c r="T32">
-        <v>0.03948031696042396</v>
+        <v>0.02795371105543523</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H33">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I33">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J33">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>26.479315</v>
       </c>
       <c r="O33">
-        <v>0.1721163472386074</v>
+        <v>0.1046783502719053</v>
       </c>
       <c r="P33">
-        <v>0.20980652343071</v>
+        <v>0.1174901309508416</v>
       </c>
       <c r="Q33">
-        <v>1249.972319932264</v>
+        <v>1195.975435991114</v>
       </c>
       <c r="R33">
-        <v>11249.75087939037</v>
+        <v>10763.77892392002</v>
       </c>
       <c r="S33">
-        <v>0.03299358449759503</v>
+        <v>0.01750164350209618</v>
       </c>
       <c r="T33">
-        <v>0.0452881783888363</v>
+        <v>0.02176673669167452</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H34">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I34">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J34">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>3.407739666666667</v>
+        <v>3.388572</v>
       </c>
       <c r="N34">
-        <v>10.223219</v>
+        <v>10.165716</v>
       </c>
       <c r="O34">
-        <v>0.06645123226565072</v>
+        <v>0.04018723219285363</v>
       </c>
       <c r="P34">
-        <v>0.0810027765695895</v>
+        <v>0.04510582332092299</v>
       </c>
       <c r="Q34">
-        <v>482.5933288155528</v>
+        <v>459.14883467574</v>
       </c>
       <c r="R34">
-        <v>4343.339959339975</v>
+        <v>4132.33951208166</v>
       </c>
       <c r="S34">
-        <v>0.01273826909472239</v>
+        <v>0.006719083834893584</v>
       </c>
       <c r="T34">
-        <v>0.01748500540063596</v>
+        <v>0.008356502555082817</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H35">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I35">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J35">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>16.095412</v>
+        <v>10.581151</v>
       </c>
       <c r="N35">
-        <v>32.19082400000001</v>
+        <v>21.162302</v>
       </c>
       <c r="O35">
-        <v>0.3138619923597475</v>
+        <v>0.1254886046702403</v>
       </c>
       <c r="P35">
-        <v>0.2550611626399649</v>
+        <v>0.09389826108421828</v>
       </c>
       <c r="Q35">
-        <v>2279.381412763767</v>
+        <v>1433.737619025962</v>
       </c>
       <c r="R35">
-        <v>13676.2884765826</v>
+        <v>8602.42571415577</v>
       </c>
       <c r="S35">
-        <v>0.0601653028991428</v>
+        <v>0.02098100339572778</v>
       </c>
       <c r="T35">
-        <v>0.05505670293191622</v>
+        <v>0.01739600346246484</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H36">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I36">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J36">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>8.935845</v>
+        <v>41.965716</v>
       </c>
       <c r="N36">
-        <v>26.807535</v>
+        <v>125.897148</v>
       </c>
       <c r="O36">
-        <v>0.174249787151636</v>
+        <v>0.4976981374547604</v>
       </c>
       <c r="P36">
-        <v>0.2124071457323227</v>
+        <v>0.5586123509938791</v>
       </c>
       <c r="Q36">
-        <v>1265.466146522875</v>
+        <v>5686.32143502722</v>
       </c>
       <c r="R36">
-        <v>11389.19531870588</v>
+        <v>51176.89291524498</v>
       </c>
       <c r="S36">
-        <v>0.03340255105521937</v>
+        <v>0.08321238680935067</v>
       </c>
       <c r="T36">
-        <v>0.04584954056571981</v>
+        <v>0.1034909728876588</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H37">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I37">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J37">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.474605</v>
+        <v>2.554843</v>
       </c>
       <c r="N37">
-        <v>7.423815</v>
+        <v>7.664529</v>
       </c>
       <c r="O37">
-        <v>0.0482550217169584</v>
+        <v>0.03029950930872554</v>
       </c>
       <c r="P37">
-        <v>0.05882194519543864</v>
+        <v>0.03400792338799259</v>
       </c>
       <c r="Q37">
-        <v>350.4457444725417</v>
+        <v>346.1792124321017</v>
       </c>
       <c r="R37">
-        <v>3154.011700252875</v>
+        <v>3115.612911888915</v>
       </c>
       <c r="S37">
-        <v>0.009250173862013177</v>
+        <v>0.005065911039219773</v>
       </c>
       <c r="T37">
-        <v>0.01269712067875316</v>
+        <v>0.006300456964566622</v>
       </c>
     </row>
   </sheetData>
